--- a/class/clt_coin.xlsx
+++ b/class/clt_coin.xlsx
@@ -1,71 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\taiyo\uni\stat\mat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiyo/stat/class/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07455331-C0FA-41E8-B7E8-DA18D29CE3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B33D7E-D9DC-E341-A2BA-0CE78E5A7842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="3220" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t># コイン班</t>
-    <rPh sb="5" eb="6">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1つ目</t>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2つ目</t>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3つ目</t>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4つ目</t>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5つ目</t>
-    <rPh sb="2" eb="3">
-      <t>メ</t>
-    </rPh>
+    <t>heads</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -73,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,34 +364,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
